--- a/프로젝트 보고서 TEMPLATE.xlsx
+++ b/프로젝트 보고서 TEMPLATE.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="TUTORIAL" sheetId="2" r:id="rId2"/>
     <sheet name="분석목표 정의서" sheetId="3" r:id="rId3"/>
-    <sheet name="데이터수집세부계획서" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>프로젝트 명
 (Project Name)</t>
@@ -135,6 +134,42 @@
     <t>1. 데이터 분석 보고서
 2. 모델 성능 평가 보고서
 3. 주가 예측 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 머신러닝 및 데이터 분석 기술을 활용하여 주가 정보를 예측하는 시스템을 개발하는 것을 목표로 합니다</t>
+  </si>
+  <si>
+    <t>핵심개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 정보확인 : info()
+2. 기술 통계 확인 : describe(), unique(), value_counts()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집한 데이터 병합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yahoo Finance 주가 정보 데이터 (API), Yahoo News 데이터(API)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -271,6 +309,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +597,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,10 +663,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -638,20 +679,20 @@
         <v>10</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -660,8 +701,8 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -670,8 +711,8 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -680,8 +721,8 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -715,25 +756,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="96.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
